--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C80308-5AAD-4F58-88B9-0E1F1A38C021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BCD448-4370-4A78-81EE-54A81D143B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1650" windowWidth="26910" windowHeight="13620" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,19 +62,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 차선에서만 등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 몬스터인지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스폰 확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>해당 거리마다 스폰실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무브키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤인지 아닌지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 거리부터 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 거리까지 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잼민이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급식충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학식충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금태양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Spwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 스폰 횟수
+0 = 제한없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장시킬 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,6 +253,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,66 +594,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>4000</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>0.9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>4000</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BCD448-4370-4A78-81EE-54A81D143B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99267865-778A-4328-B1F9-2C5DAAE51C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,22 +64,6 @@
   </si>
   <si>
     <t>MoveKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무브키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤인지 아닌지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,18 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등장 스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등장시킬 몬스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,7 +128,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a,b,c,d</t>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseHpScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseAtkScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 증가 배율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,21 +583,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -616,46 +606,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -664,24 +654,24 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -710,14 +700,10 @@
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>4</v>
@@ -725,7 +711,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -742,22 +728,22 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -775,12 +761,12 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -796,14 +782,11 @@
       </c>
       <c r="F6">
         <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -820,8 +803,16 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99267865-778A-4328-B1F9-2C5DAAE51C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022D1BFE-5951-4D1A-87B1-D1400AF195DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,18 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Distance Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeat Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 거리부터 등장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +92,6 @@
   </si>
   <si>
     <t>금태양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Spwan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,6 +137,30 @@
   </si>
   <si>
     <t>체력 증가 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistanceMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistanceMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSpwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +590,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,78 +610,78 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -695,23 +699,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -729,21 +737,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -761,12 +769,12 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -786,7 +794,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -809,7 +817,7 @@
         <v>10000</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>200</v>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022D1BFE-5951-4D1A-87B1-D1400AF195DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA9852-03E4-45B0-9B27-5774A702167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA9852-03E4-45B0-9B27-5774A702167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCF139-E43B-4C57-958E-9F422C712373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="1755" yWindow="1005" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,22 +108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동패턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IncreaseHpScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +149,22 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftFast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,19 +614,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -631,10 +635,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -667,21 +671,21 @@
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -693,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -746,7 +750,7 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -768,8 +772,11 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -791,6 +798,12 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -811,16 +824,11 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>10000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCF139-E43B-4C57-958E-9F422C712373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4211E1C-03B4-46C6-9556-877C121FC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1005" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="1485" yWindow="915" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,22 +76,6 @@
   </si>
   <si>
     <t>해당 거리까지 등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잼민이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>급식충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학식충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금태양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,6 +149,23 @@
   </si>
   <si>
     <t>LeftFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon2</t>
+  </si>
+  <si>
+    <t>mon3</t>
+  </si>
+  <si>
+    <t>mon4</t>
+  </si>
+  <si>
+    <t>mon1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +595,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,19 +615,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -635,10 +636,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -662,30 +663,30 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -697,33 +698,33 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -741,21 +742,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -772,16 +773,22 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -798,16 +805,22 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -824,11 +837,17 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4211E1C-03B4-46C6-9556-877C121FC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99C2B3-5B32-467C-9D49-AB5F670E11AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="915" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="2760" yWindow="1035" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>mon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 캐릭터 프리팹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,9 +616,10 @@
     <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -647,8 +656,11 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -683,8 +695,11 @@
       <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -721,8 +736,11 @@
       <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -753,8 +771,11 @@
       <c r="L4" t="s">
         <v>27</v>
       </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -785,8 +806,11 @@
       <c r="L5" t="s">
         <v>28</v>
       </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -817,8 +841,11 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -848,6 +875,9 @@
       </c>
       <c r="L7" t="s">
         <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99C2B3-5B32-467C-9D49-AB5F670E11AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CF6F4-0AA1-4131-9FDB-1DD827212CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1035" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="705" yWindow="510" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M7"/>
+      <selection activeCell="M4" sqref="M4:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
         <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -877,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CF6F4-0AA1-4131-9FDB-1DD827212CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272108B-FA1B-4F24-BD24-78D1A2F7ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="510" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
@@ -696,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -742,16 +738,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -760,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -772,18 +768,18 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -795,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -804,21 +800,21 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="C6">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -830,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -839,21 +835,21 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="C7">
-        <v>4000</v>
+        <v>60000</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -865,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>40</v>
@@ -874,10 +870,10 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
         <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272108B-FA1B-4F24-BD24-78D1A2F7ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA9852-03E4-45B0-9B27-5774A702167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="510" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,22 @@
   </si>
   <si>
     <t>해당 거리까지 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잼민이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급식충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학식충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금태양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,10 +108,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이동패턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>IncreaseHpScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,43 +161,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftFast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon2</t>
-  </si>
-  <si>
-    <t>mon3</t>
-  </si>
-  <si>
-    <t>mon4</t>
-  </si>
-  <si>
-    <t>mon1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임 캐릭터 프리팹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,27 +603,26 @@
     <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -641,10 +631,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -652,11 +642,8 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -671,33 +658,30 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -709,45 +693,42 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -756,30 +737,27 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -790,31 +768,19 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
       <c r="B6">
-        <v>50000</v>
+        <v>2000</v>
       </c>
       <c r="C6">
-        <v>80000</v>
+        <v>4000</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -825,31 +791,16 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="C7">
-        <v>60000</v>
+        <v>4000</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -860,20 +811,16 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA9852-03E4-45B0-9B27-5774A702167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272108B-FA1B-4F24-BD24-78D1A2F7ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="705" yWindow="510" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,22 +76,6 @@
   </si>
   <si>
     <t>해당 거리까지 등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잼민이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>급식충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학식충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금태양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,22 +92,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동패턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IncreaseHpScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +133,43 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon2</t>
+  </si>
+  <si>
+    <t>mon3</t>
+  </si>
+  <si>
+    <t>mon4</t>
+  </si>
+  <si>
+    <t>mon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 캐릭터 프리팹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,26 +612,27 @@
     <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -631,10 +641,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -642,8 +652,11 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -658,30 +671,33 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -693,42 +709,45 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -737,27 +756,30 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -768,19 +790,31 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="C6">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -791,16 +825,31 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="C7">
-        <v>4000</v>
+        <v>60000</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -811,16 +860,20 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>10000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Spwaner.xlsx
+++ b/truck/Table/Spwaner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272108B-FA1B-4F24-BD24-78D1A2F7ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706EECE8-D889-440E-A92D-2416D3A8098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="510" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Spwaner" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -761,6 +761,12 @@
       <c r="H4">
         <v>10</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -796,6 +802,12 @@
       <c r="H5">
         <v>20</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
@@ -831,6 +843,12 @@
       <c r="H6">
         <v>30</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
@@ -865,6 +883,12 @@
       </c>
       <c r="H7">
         <v>40</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
